--- a/Parte 1/dados/Democracy Index.xlsx
+++ b/Parte 1/dados/Democracy Index.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Desktop\Projetos\Dissertação Cristhiano Henrique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Desktop\Projetos\Dissertacao-Cristhiano_Henrique\Parte 1\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B76E27F-07B4-4CA1-8A0F-6C80DE4BD14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7B35D6-14DE-46A8-8E6B-1F956BD5302F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,9 +418,6 @@
     <t>Comoros</t>
   </si>
   <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
     <t>Djibouti</t>
   </si>
   <si>
@@ -566,6 +563,9 @@
   </si>
   <si>
     <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
 </sst>
 </file>
@@ -953,8 +953,8 @@
   </sheetPr>
   <dimension ref="A1:R168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2159,7 +2159,7 @@
         <v>103</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>29</v>
@@ -2917,7 +2917,7 @@
         <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>35</v>
@@ -3349,7 +3349,7 @@
         <v>124</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>35</v>
@@ -3457,7 +3457,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
@@ -5025,7 +5025,7 @@
         <v>151</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>35</v>
@@ -5459,7 +5459,7 @@
         <v>85</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>29</v>
@@ -5675,7 +5675,7 @@
         <v>159</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>35</v>
@@ -5999,7 +5999,7 @@
         <v>165</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>35</v>
@@ -6269,7 +6269,7 @@
         <v>16</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>6</v>
@@ -6485,7 +6485,7 @@
         <v>43</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>8</v>
@@ -6703,7 +6703,7 @@
         <v>132</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>35</v>
@@ -6757,7 +6757,7 @@
         <v>154</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>35</v>
@@ -7243,7 +7243,7 @@
         <v>109</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>35</v>
@@ -7459,7 +7459,7 @@
         <v>162</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>35</v>
@@ -7621,7 +7621,7 @@
         <v>154</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>35</v>
@@ -7947,7 +7947,7 @@
         <v>32</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>8</v>
@@ -8217,7 +8217,7 @@
         <v>137</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>35</v>
@@ -8271,7 +8271,7 @@
         <v>105</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>29</v>
@@ -8325,7 +8325,7 @@
         <v>164</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>35</v>
@@ -8379,7 +8379,7 @@
         <v>139</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>35</v>
@@ -8433,7 +8433,7 @@
         <v>158</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>35</v>
@@ -8487,7 +8487,7 @@
         <v>153</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>35</v>
@@ -8541,7 +8541,7 @@
         <v>128</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>35</v>
@@ -8595,7 +8595,7 @@
         <v>123</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>35</v>
@@ -8649,7 +8649,7 @@
         <v>121</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>35</v>
@@ -8703,7 +8703,7 @@
         <v>101</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>29</v>
@@ -8757,7 +8757,7 @@
         <v>56</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>8</v>
@@ -8811,7 +8811,7 @@
         <v>147</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>35</v>
@@ -8865,7 +8865,7 @@
         <v>138</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>35</v>
@@ -8919,7 +8919,7 @@
         <v>94</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>29</v>
@@ -8973,7 +8973,7 @@
         <v>64</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>8</v>
@@ -9027,7 +9027,7 @@
         <v>90</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>29</v>
@@ -9081,7 +9081,7 @@
         <v>83</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>29</v>
@@ -9135,7 +9135,7 @@
         <v>78</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>29</v>
@@ -9189,7 +9189,7 @@
         <v>119</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>35</v>
@@ -9243,7 +9243,7 @@
         <v>108</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>29</v>
@@ -9297,7 +9297,7 @@
         <v>19</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>6</v>
@@ -9351,7 +9351,7 @@
         <v>116</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>35</v>
@@ -9405,7 +9405,7 @@
         <v>55</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>8</v>
@@ -9459,7 +9459,7 @@
         <v>125</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>35</v>
@@ -9513,7 +9513,7 @@
         <v>107</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>29</v>
@@ -9567,7 +9567,7 @@
         <v>127</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>35</v>
@@ -9621,7 +9621,7 @@
         <v>88</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>29</v>
@@ -9675,7 +9675,7 @@
         <v>97</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>29</v>
@@ -9729,7 +9729,7 @@
         <v>44</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>8</v>
@@ -9783,7 +9783,7 @@
         <v>92</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>29</v>
@@ -9837,7 +9837,7 @@
         <v>136</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>35</v>
@@ -9891,7 +9891,7 @@
         <v>100</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>29</v>
@@ -9945,7 +9945,7 @@
         <v>79</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>29</v>
@@ -9999,7 +9999,7 @@
         <v>133</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>35</v>
@@ -10192,7 +10192,7 @@
     <hyperlink ref="C133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="C134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="C135" r:id="rId134" display="Republic of the Congo" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="C136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C136" r:id="rId135" display="Ivory Coast" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
     <hyperlink ref="C137" r:id="rId136" display="Democratic Republic of the Congo" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
     <hyperlink ref="C138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
     <hyperlink ref="C139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
